--- a/biology/Histoire de la zoologie et de la botanique/Musée_de_la_soie/Musée_de_la_soie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_de_la_soie/Musée_de_la_soie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_soie</t>
+          <t>Musée_de_la_soie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de la soie est un musée situé à Saint-Hippolyte-du-Fort. La thématique majeure de ses collections est la sériciculture en Cévennes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_soie</t>
+          <t>Musée_de_la_soie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée a été créé en 1984, à l’initiative de l’ « Association Développement de la Sériciculture en Cévennes ». Son objectif était de conserver, revaloriser et transmettre le patrimoine séricicole cévenol. La création du musée a fait suite à une tentative de relance de l’activité séricicole dans la région dans les années 1980.
 Le musée a fermé en 2011 pour des travaux de remise aux normes et a rouvert en Juillet 2013 avec une nouvelle équipe dirigeante : l’ « Association du Musée de la Soie de Saint Hippolyte du Fort ». La commune s’est portée acquéreur de la collection du musée et a pris en charge la réalisation des travaux de remise aux normes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_soie</t>
+          <t>Musée_de_la_soie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Collections et visite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée est divisé en plusieurs parties, qui suivent l’ordre chronologique de la sériciculture.
 La première salle présente une magnanerie reconstituée, où les visiteurs peuvent observer d’avril à octobre un véritable élevage de vers à soie, à tous les stades de la croissance, de l’éclosion des vers aux papillons. Le matériel nécessaire à l’élevage des vers à soie est également visible : boites à graine, incubateurs, paniers pour récolter les feuilles de mûrier, coupe-feuilles, matériel pour la sélection des vers…
